--- a/移动应用API.xlsx
+++ b/移动应用API.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>学生登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,14 +45,6 @@
     <t>state 0 未注册 1成功 3密码错误</t>
   </si>
   <si>
-    <t>teacherLogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studentRegister</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学生注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,19 +61,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>studentPrefer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学生偏好设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>state 0 失败 2成功</t>
-  </si>
-  <si>
-    <t>studentAllInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{[{infoId,title,pubTime,startTime,
@@ -90,27 +74,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学生的所有信息的标题和发布时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studentOneInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生查看一个具体的通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{infoId:"1"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studentDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生查看个人信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -142,30 +106,84 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{[{
+    <t>通知列表和个人日程安排都在这里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生加自己的安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{state: msg }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacherLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentRegister</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentPrefer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentAllInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生的所有信息的标题和发布时间，开始时间结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentOneInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生查看一个具体的通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生查看个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentAddOneInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentSearchInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{stuId,title,pubTime,startTime,endTime,
+content,kind:"8"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生搜索通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{title}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
 infoId,title,pubTime，startTime，endTime
-},{},{}    ]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知列表和个人日程安排都在这里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生加自己的安排</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{stuId,pubTime,startTime,endTime,
-kind:"8"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{state: msg }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studentAddOneInfo</t>
+},{},{}    ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[{infoId,title,pubTime，startTime，endTime
+},{},{}    ]
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,12 +207,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -209,9 +233,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -515,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -542,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -553,13 +585,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -570,96 +602,128 @@
     </row>
     <row r="4" spans="1:5" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/移动应用API.xlsx
+++ b/移动应用API.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3B9A85-3F43-46BF-9552-0B879AFABBA7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{teaId,passwrod}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>state 0 失败 1成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,11 +183,15 @@
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>{teaId,password}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -256,6 +257,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -303,7 +307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,9 +340,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,6 +392,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -546,11 +584,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -585,13 +623,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -602,109 +640,109 @@
     </row>
     <row r="4" spans="1:5" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -733,7 +771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -746,7 +784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/移动应用API.xlsx
+++ b/移动应用API.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3B9A85-3F43-46BF-9552-0B879AFABBA7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>学生登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,11 +71,6 @@
   </si>
   <si>
     <t>{infoId:"1"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{stuId}
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -127,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>studentAllInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学生的所有信息的标题和发布时间，开始时间结束时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,10 +142,6 @@
   </si>
   <si>
     <t>studentAddOneInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studentSearchInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -185,13 +171,42 @@
   </si>
   <si>
     <t>{teaId,password}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentAllInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{stuId}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentSearchInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type:""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[infoId title pubTime]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kindInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回各类通知小类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -245,6 +260,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -307,7 +326,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,26 +359,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,23 +394,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -584,11 +569,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -623,13 +608,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -640,13 +625,13 @@
     </row>
     <row r="4" spans="1:5" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -657,13 +642,13 @@
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -674,27 +659,27 @@
     </row>
     <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -705,44 +690,44 @@
     </row>
     <row r="8" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -752,16 +737,30 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -771,7 +770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -784,7 +783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/移动应用API.xlsx
+++ b/移动应用API.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561AFB1E-E48F-4BFA-9B41-AC57E35BAB6A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -206,7 +207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -326,7 +327,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,9 +360,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,6 +412,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -569,19 +604,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.77734375" customWidth="1"/>
-    <col min="3" max="4" width="39.88671875" customWidth="1"/>
-    <col min="5" max="5" width="40.109375" customWidth="1"/>
+    <col min="1" max="1" width="39.08984375" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" customWidth="1"/>
+    <col min="3" max="4" width="39.90625" customWidth="1"/>
+    <col min="5" max="5" width="40.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -640,7 +675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -657,7 +692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -674,7 +709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -688,7 +723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -702,7 +737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -716,7 +751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>38</v>
       </c>
@@ -770,12 +805,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -783,12 +818,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/移动应用API.xlsx
+++ b/移动应用API.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561AFB1E-E48F-4BFA-9B41-AC57E35BAB6A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C077CD-EA99-44F3-9F92-3962BDA42C4F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
